--- a/data-mining/delivery/operation-analysis.xlsx
+++ b/data-mining/delivery/operation-analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i327636\Desktop\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my-git\data-mining\DataMining\delivery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B6ABD09-FE7E-40A7-ADB4-111341D8D9A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{76D62D0F-BD6C-4E02-B01D-59CD5D2E57A7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{F5544036-D815-40B6-8610-75117F1EAEA2}"/>
   </bookViews>
@@ -438,7 +438,7 @@
         <v>477</v>
       </c>
       <c r="E2">
-        <v>106188.328871044</v>
+        <v>679.35823885714399</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>1007</v>
       </c>
       <c r="E3">
-        <v>214550.28531852399</v>
+        <v>1143.4173245714301</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -472,7 +472,7 @@
         <v>1550</v>
       </c>
       <c r="E4">
-        <v>323939.38218835398</v>
+        <v>1556.67522514285</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -489,7 +489,7 @@
         <v>2086</v>
       </c>
       <c r="E5">
-        <v>435114.84667269897</v>
+        <v>1997.5341805714299</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -506,7 +506,7 @@
         <v>2622</v>
       </c>
       <c r="E6">
-        <v>547559.62649578799</v>
+        <v>2443.3166799999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -523,7 +523,7 @@
         <v>3160</v>
       </c>
       <c r="E7">
-        <v>661081.31190176203</v>
+        <v>2894.7127714285698</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>3666</v>
       </c>
       <c r="E8">
-        <v>775013.38490483805</v>
+        <v>3463.32010857143</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -557,7 +557,7 @@
         <v>4153</v>
       </c>
       <c r="E9">
-        <v>888910.69990197301</v>
+        <v>4138.6642114285696</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
         <v>4659</v>
       </c>
       <c r="E10">
-        <v>1003468.24427916</v>
+        <v>4770.7523371428597</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>5193</v>
       </c>
       <c r="E11">
-        <v>1117916.2501908699</v>
+        <v>5289.8985657142903</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -608,7 +608,7 @@
         <v>5736</v>
       </c>
       <c r="E12">
-        <v>1231834.7607120899</v>
+        <v>5761.2895600000002</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
         <v>6338</v>
       </c>
       <c r="E13">
-        <v>1345222.0214048401</v>
+        <v>5944.9778445714301</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -642,7 +642,7 @@
         <v>6941</v>
       </c>
       <c r="E14">
-        <v>1457663.42110502</v>
+        <v>6124.8757897142896</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>7507</v>
       </c>
       <c r="E15">
-        <v>1569026.0861079099</v>
+        <v>6426.78174514286</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -676,7 +676,7 @@
         <v>8041</v>
       </c>
       <c r="E16">
-        <v>1679104.55445326</v>
+        <v>6887.7854125714302</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
         <v>8616</v>
       </c>
       <c r="E17">
-        <v>1788209.2954434899</v>
+        <v>7208.2987977142902</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
         <v>9531</v>
       </c>
       <c r="E18">
-        <v>1898940.74614842</v>
+        <v>6056.1449268571396</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>10460</v>
       </c>
       <c r="E19">
-        <v>2007326.37349647</v>
+        <v>4807.3634502857103</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -744,7 +744,7 @@
         <v>11380</v>
       </c>
       <c r="E20">
-        <v>2111270.3793733702</v>
+        <v>3627.5495882597402</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
         <v>11265</v>
       </c>
       <c r="E21">
-        <v>2210576.4965350898</v>
+        <v>4738.6028470072097</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
         <v>11236</v>
       </c>
       <c r="E22">
-        <v>2309887.9753517299</v>
+        <v>5717.8930894892301</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -795,7 +795,7 @@
         <v>11042</v>
       </c>
       <c r="E23">
-        <v>2409021.3376706298</v>
+        <v>7298.0144770610996</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -812,7 +812,7 @@
         <v>10879</v>
       </c>
       <c r="E24">
-        <v>2505820.0842659799</v>
+        <v>8700.1966991885292</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
         <v>10839</v>
       </c>
       <c r="E25">
-        <v>2602713.1669835602</v>
+        <v>9760.5785809837398</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -846,7 +846,7 @@
         <v>10914</v>
       </c>
       <c r="E26">
-        <v>2699426.8497033799</v>
+        <v>10526.4863531671</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>10881</v>
       </c>
       <c r="E27">
-        <v>2795692.0061765099</v>
+        <v>11543.0746683908</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>10943</v>
       </c>
       <c r="E28">
-        <v>2891774.3531699101</v>
+        <v>12386.038897717101</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
         <v>10890</v>
       </c>
       <c r="E29">
-        <v>2987493.7696860698</v>
+        <v>13510.4215905123</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -914,7 +914,7 @@
         <v>10803</v>
       </c>
       <c r="E30">
-        <v>3083103.7752126101</v>
+        <v>14839.0122755802</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -931,7 +931,7 @@
         <v>10649</v>
       </c>
       <c r="E31">
-        <v>3176062.2360680299</v>
+        <v>16187.912364797799</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
         <v>11059</v>
       </c>
       <c r="E32">
-        <v>3269822.1356737199</v>
+        <v>16069.753930520001</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>10951</v>
       </c>
       <c r="E33">
-        <v>3362440.87926574</v>
+        <v>17130.206692631102</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -982,7 +982,7 @@
         <v>10942</v>
       </c>
       <c r="E34">
-        <v>3454992.9302419499</v>
+        <v>17983.698746274</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
         <v>11026</v>
       </c>
       <c r="E35">
-        <v>3547329.68013675</v>
+        <v>18666.994551670799</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
         <v>10982</v>
       </c>
       <c r="E36">
-        <v>3639391.0318779899</v>
+        <v>19721.581880313599</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1033,7 +1033,7 @@
         <v>10934</v>
       </c>
       <c r="E37">
-        <v>3731262.99829834</v>
+        <v>20801.851061956499</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
         <v>10805</v>
       </c>
       <c r="E38">
-        <v>3820291.5048487601</v>
+        <v>21990.8789966232</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
         <v>10691</v>
       </c>
       <c r="E39">
-        <v>3909180.1079879501</v>
+        <v>23092.291375289798</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1084,7 +1084,7 @@
         <v>10786</v>
       </c>
       <c r="E40">
-        <v>3997937.66320433</v>
+        <v>23719.6758721152</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1101,7 +1101,7 @@
         <v>10779</v>
       </c>
       <c r="E41">
-        <v>4086313.0752099599</v>
+        <v>24570.9362474724</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1118,7 +1118,7 @@
         <v>10776</v>
       </c>
       <c r="E42">
-        <v>4174396.4508529701</v>
+        <v>25399.310066329501</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>10745</v>
       </c>
       <c r="E43">
-        <v>4262369.9395117601</v>
+        <v>26384.797630115201</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
         <v>10806</v>
       </c>
       <c r="E44">
-        <v>4350174.7077146498</v>
+        <v>27204.325452654899</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
         <v>10678</v>
       </c>
       <c r="E45">
-        <v>4434793.1486216299</v>
+        <v>28394.082397321599</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
         <v>10570</v>
       </c>
       <c r="E46">
-        <v>4519187.15501903</v>
+        <v>29463.183132321599</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1203,7 +1203,7 @@
         <v>10577</v>
       </c>
       <c r="E47">
-        <v>4603356.5282748798</v>
+        <v>30231.0917713216</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1220,7 +1220,7 @@
         <v>10687</v>
       </c>
       <c r="E48">
-        <v>4687226.1760722604</v>
+        <v>30772.852470369198</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>10699</v>
       </c>
       <c r="E49">
-        <v>4770607.8301514704</v>
+        <v>31513.5346096549</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
         <v>10692</v>
       </c>
       <c r="E50">
-        <v>4853875.2679503895</v>
+        <v>32359.996541525099</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
         <v>10647</v>
       </c>
       <c r="E51">
-        <v>4937180.0992647801</v>
+        <v>33434.194519395198</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1288,7 +1288,7 @@
         <v>10517</v>
       </c>
       <c r="E52">
-        <v>5017275.9717609603</v>
+        <v>34638.102698874703</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1305,7 +1305,7 @@
         <v>10404</v>
       </c>
       <c r="E53">
-        <v>5097174.7152608298</v>
+        <v>35741.190111046599</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1322,7 +1322,7 @@
         <v>10399</v>
       </c>
       <c r="E54">
-        <v>5176848.0702186702</v>
+        <v>36594.680222383598</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
         <v>10392</v>
       </c>
       <c r="E55">
-        <v>5256216.3527403297</v>
+        <v>37459.275319678803</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1356,7 +1356,7 @@
         <v>10479</v>
       </c>
       <c r="E56">
-        <v>5335355.3525467804</v>
+        <v>38155.111284560597</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1373,7 +1373,7 @@
         <v>10446</v>
       </c>
       <c r="E57">
-        <v>5414312.5772895701</v>
+        <v>39160.535343855801</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1390,7 +1390,7 @@
         <v>10498</v>
       </c>
       <c r="E58">
-        <v>5493114.6789699197</v>
+        <v>40045.720024293099</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
         <v>10361</v>
       </c>
       <c r="E59">
-        <v>5568473.5964065203</v>
+        <v>41292.851528747</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1424,7 +1424,7 @@
         <v>10250</v>
       </c>
       <c r="E60">
-        <v>5643415.6584684402</v>
+        <v>42384.7595039304</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1441,7 +1441,7 @@
         <v>10241</v>
       </c>
       <c r="E61">
-        <v>5718189.4282240197</v>
+        <v>43263.711784141196</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1458,7 +1458,7 @@
         <v>10335</v>
       </c>
       <c r="E62">
-        <v>5792650.1290410496</v>
+        <v>43921.295529427</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1475,7 +1475,7 @@
         <v>10531</v>
       </c>
       <c r="E63">
-        <v>5867551.1500557102</v>
+        <v>44309.034948784203</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
         <v>10605</v>
       </c>
       <c r="E64">
-        <v>5942277.3682420198</v>
+        <v>45025.369010688897</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
         <v>10558</v>
       </c>
       <c r="E65">
-        <v>6016843.4740739204</v>
+        <v>46089.108393474598</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1526,7 +1526,7 @@
         <v>10423</v>
       </c>
       <c r="E66">
-        <v>6088026.0913734203</v>
+        <v>47308.757388808001</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>10310</v>
       </c>
       <c r="E67">
-        <v>6158920.1394332098</v>
+        <v>48395.6575633635</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1560,7 +1560,7 @@
         <v>10301</v>
       </c>
       <c r="E68">
-        <v>6229653.7736922503</v>
+        <v>49239.024050863503</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1577,7 +1577,7 @@
         <v>10289</v>
       </c>
       <c r="E69">
-        <v>6300136.4473677902</v>
+        <v>50103.106849792101</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1594,7 +1594,7 @@
         <v>10374</v>
       </c>
       <c r="E70">
-        <v>6370350.8769517103</v>
+        <v>50774.7935936016</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1611,7 +1611,7 @@
         <v>10330</v>
       </c>
       <c r="E71">
-        <v>6440470.8153584804</v>
+        <v>51825.087810601603</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1628,7 +1628,7 @@
         <v>10380</v>
       </c>
       <c r="E72">
-        <v>6510385.7396356501</v>
+        <v>52693.116117268299</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
         <v>10246</v>
       </c>
       <c r="E73">
-        <v>6576957.0588414604</v>
+        <v>53913.745913935003</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1662,7 +1662,7 @@
         <v>10134</v>
       </c>
       <c r="E74">
-        <v>6643076.9196709301</v>
+        <v>55003.475836046098</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
         <v>10130</v>
       </c>
       <c r="E75">
-        <v>6708906.6164110899</v>
+        <v>55835.4322708318</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1696,7 +1696,7 @@
         <v>10131</v>
       </c>
       <c r="E76">
-        <v>6774440.6732689803</v>
+        <v>56638.492275831799</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1713,7 +1713,7 @@
         <v>10126</v>
       </c>
       <c r="E77">
-        <v>6839758.3681791397</v>
+        <v>57478.069126831797</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1730,7 +1730,7 @@
         <v>10209</v>
       </c>
       <c r="E78">
-        <v>6904891.6897527603</v>
+        <v>58161.085193498497</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1747,7 +1747,7 @@
         <v>10162</v>
       </c>
       <c r="E79">
-        <v>6969986.2592167798</v>
+        <v>59239.152074212798</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1764,7 +1764,7 @@
         <v>10021</v>
       </c>
       <c r="E80">
-        <v>7032055.2944810996</v>
+        <v>60506.258050879398</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -1781,7 +1781,7 @@
         <v>9912</v>
       </c>
       <c r="E81">
-        <v>7093599.0171756102</v>
+        <v>61583.668642026903</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -1798,7 +1798,7 @@
         <v>9921</v>
       </c>
       <c r="E82">
-        <v>7154684.1007038103</v>
+        <v>62349.233103668499</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -1815,7 +1815,7 @@
         <v>9928</v>
       </c>
       <c r="E83">
-        <v>7215502.6439003702</v>
+        <v>63128.711810593297</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -1832,7 +1832,7 @@
         <v>9922</v>
       </c>
       <c r="E84">
-        <v>7276126.70876568</v>
+        <v>63987.847635996201</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -1849,7 +1849,7 @@
         <v>9888</v>
       </c>
       <c r="E85">
-        <v>7336719.7574521201</v>
+        <v>65001.179696833198</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -1866,7 +1866,7 @@
         <v>9936</v>
       </c>
       <c r="E86">
-        <v>7397138.2772621699</v>
+        <v>65914.640300889601</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
         <v>9793</v>
       </c>
       <c r="E87">
-        <v>7454931.2868514899</v>
+        <v>67199.190017876797</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -1900,7 +1900,7 @@
         <v>9678</v>
       </c>
       <c r="E88">
-        <v>7512205.9382619504</v>
+        <v>68316.513867052097</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -1917,7 +1917,7 @@
         <v>9670</v>
       </c>
       <c r="E89">
-        <v>7569074.6601666203</v>
+        <v>69191.720983947307</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
         <v>9664</v>
       </c>
       <c r="E90">
-        <v>7625646.5005468698</v>
+        <v>70054.358770042498</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -1951,7 +1951,7 @@
         <v>9649</v>
       </c>
       <c r="E91">
-        <v>7682017.0680955499</v>
+        <v>70972.492401110503</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -1968,7 +1968,7 @@
         <v>9512</v>
       </c>
       <c r="E92">
-        <v>7683259.6605302896</v>
+        <v>72215.084835849397</v>
       </c>
     </row>
   </sheetData>

--- a/data-mining/delivery/operation-analysis.xlsx
+++ b/data-mining/delivery/operation-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my-git\data-mining\DataMining\delivery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{76D62D0F-BD6C-4E02-B01D-59CD5D2E57A7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{05590080-85AA-44BA-B0AD-C29CCC873C55}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{F5544036-D815-40B6-8610-75117F1EAEA2}"/>
   </bookViews>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8504E0-A1A2-46A6-BF94-40AB0B2CE54E}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E92"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,16 +769,16 @@
         <v>42846</v>
       </c>
       <c r="B22">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="C22">
         <v>245</v>
       </c>
       <c r="D22">
-        <v>11236</v>
+        <v>11212</v>
       </c>
       <c r="E22">
-        <v>5717.8930894892301</v>
+        <v>5772.1441736579</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -786,16 +786,16 @@
         <v>42847</v>
       </c>
       <c r="B23">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="C23">
         <v>306</v>
       </c>
       <c r="D23">
-        <v>11042</v>
+        <v>11078</v>
       </c>
       <c r="E23">
-        <v>7298.0144770610996</v>
+        <v>7216.8270188575598</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -809,10 +809,10 @@
         <v>275</v>
       </c>
       <c r="D24">
-        <v>10879</v>
+        <v>10915</v>
       </c>
       <c r="E24">
-        <v>8700.1966991885292</v>
+        <v>8619.0092409849894</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -820,16 +820,16 @@
         <v>42849</v>
       </c>
       <c r="B25">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="C25">
         <v>256</v>
       </c>
       <c r="D25">
-        <v>10839</v>
+        <v>10831</v>
       </c>
       <c r="E25">
-        <v>9760.5785809837398</v>
+        <v>9775.7548135256093</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -837,16 +837,16 @@
         <v>42850</v>
       </c>
       <c r="B26">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C26">
         <v>245</v>
       </c>
       <c r="D26">
-        <v>10914</v>
+        <v>10908</v>
       </c>
       <c r="E26">
-        <v>10526.4863531671</v>
+        <v>10537.277321785101</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -854,16 +854,16 @@
         <v>42851</v>
       </c>
       <c r="B27">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="C27">
         <v>249</v>
       </c>
       <c r="D27">
-        <v>10881</v>
+        <v>10891</v>
       </c>
       <c r="E27">
-        <v>11543.0746683908</v>
+        <v>11518.6862529514</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -871,16 +871,16 @@
         <v>42852</v>
       </c>
       <c r="B28">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="C28">
         <v>258</v>
       </c>
       <c r="D28">
-        <v>10943</v>
+        <v>10905</v>
       </c>
       <c r="E28">
-        <v>12386.038897717101</v>
+        <v>12467.0188478787</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -888,16 +888,16 @@
         <v>42853</v>
       </c>
       <c r="B29">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="C29">
         <v>269</v>
       </c>
       <c r="D29">
-        <v>10890</v>
+        <v>10908</v>
       </c>
       <c r="E29">
-        <v>13510.4215905123</v>
+        <v>13465.161127694801</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -905,16 +905,16 @@
         <v>42854</v>
       </c>
       <c r="B30">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="C30">
         <v>303</v>
       </c>
       <c r="D30">
-        <v>10803</v>
+        <v>10847</v>
       </c>
       <c r="E30">
-        <v>14839.0122755802</v>
+        <v>14735.2061544839</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -928,10 +928,10 @@
         <v>266</v>
       </c>
       <c r="D31">
-        <v>10649</v>
+        <v>10693</v>
       </c>
       <c r="E31">
-        <v>16187.912364797799</v>
+        <v>16084.106243701501</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -939,16 +939,16 @@
         <v>42856</v>
       </c>
       <c r="B32">
-        <v>632</v>
+        <v>552</v>
       </c>
       <c r="C32">
         <v>222</v>
       </c>
       <c r="D32">
-        <v>11059</v>
+        <v>11023</v>
       </c>
       <c r="E32">
-        <v>16069.753930520001</v>
+        <v>16149.231155534801</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -956,16 +956,16 @@
         <v>42857</v>
       </c>
       <c r="B33">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="C33">
         <v>220</v>
       </c>
       <c r="D33">
-        <v>10951</v>
+        <v>10975</v>
       </c>
       <c r="E33">
-        <v>17130.206692631102</v>
+        <v>17071.8193259197</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -973,16 +973,16 @@
         <v>42858</v>
       </c>
       <c r="B34">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C34">
         <v>225</v>
       </c>
       <c r="D34">
-        <v>10942</v>
+        <v>10972</v>
       </c>
       <c r="E34">
-        <v>17983.698746274</v>
+        <v>17911.581992163799</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -990,16 +990,16 @@
         <v>42859</v>
       </c>
       <c r="B35">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="C35">
         <v>236</v>
       </c>
       <c r="D35">
-        <v>11026</v>
+        <v>10968</v>
       </c>
       <c r="E35">
-        <v>18666.994551670799</v>
+        <v>18795.722451076501</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1007,16 +1007,16 @@
         <v>42860</v>
       </c>
       <c r="B36">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="C36">
         <v>260</v>
       </c>
       <c r="D36">
-        <v>10982</v>
+        <v>10950</v>
       </c>
       <c r="E36">
-        <v>19721.581880313599</v>
+        <v>19789.786032241202</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1024,16 +1024,16 @@
         <v>42861</v>
       </c>
       <c r="B37">
-        <v>216</v>
+        <v>282</v>
       </c>
       <c r="C37">
         <v>264</v>
       </c>
       <c r="D37">
-        <v>10934</v>
+        <v>10968</v>
       </c>
       <c r="E37">
-        <v>20801.851061956499</v>
+        <v>20716.944130497101</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1047,10 +1047,10 @@
         <v>241</v>
       </c>
       <c r="D38">
-        <v>10805</v>
+        <v>10839</v>
       </c>
       <c r="E38">
-        <v>21990.8789966232</v>
+        <v>21905.972065163802</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1064,10 +1064,10 @@
         <v>226</v>
       </c>
       <c r="D39">
-        <v>10691</v>
+        <v>10725</v>
       </c>
       <c r="E39">
-        <v>23092.291375289798</v>
+        <v>23007.384443830499</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1075,16 +1075,16 @@
         <v>42864</v>
       </c>
       <c r="B40">
-        <v>320</v>
+        <v>242</v>
       </c>
       <c r="C40">
         <v>225</v>
       </c>
       <c r="D40">
-        <v>10786</v>
+        <v>10742</v>
       </c>
       <c r="E40">
-        <v>23719.6758721152</v>
+        <v>23810.358032054701</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1092,16 +1092,16 @@
         <v>42865</v>
       </c>
       <c r="B41">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="C41">
         <v>223</v>
       </c>
       <c r="D41">
-        <v>10779</v>
+        <v>10771</v>
       </c>
       <c r="E41">
-        <v>24570.9362474724</v>
+        <v>24580.8668033047</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1109,16 +1109,16 @@
         <v>42866</v>
       </c>
       <c r="B42">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="C42">
         <v>219</v>
       </c>
       <c r="D42">
-        <v>10776</v>
+        <v>10814</v>
       </c>
       <c r="E42">
-        <v>25399.310066329501</v>
+        <v>25306.286620622101</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1126,16 +1126,16 @@
         <v>42867</v>
       </c>
       <c r="B43">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C43">
         <v>247</v>
       </c>
       <c r="D43">
-        <v>10745</v>
+        <v>10779</v>
       </c>
       <c r="E43">
-        <v>26384.797630115201</v>
+        <v>26300.9231184118</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1143,16 +1143,16 @@
         <v>42868</v>
       </c>
       <c r="B44">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="C44">
         <v>259</v>
       </c>
       <c r="D44">
-        <v>10806</v>
+        <v>10782</v>
       </c>
       <c r="E44">
-        <v>27204.325452654899</v>
+        <v>27253.104585616202</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1166,10 +1166,10 @@
         <v>240</v>
       </c>
       <c r="D45">
-        <v>10678</v>
+        <v>10654</v>
       </c>
       <c r="E45">
-        <v>28394.082397321599</v>
+        <v>28442.8615302828</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1177,16 +1177,16 @@
         <v>42870</v>
       </c>
       <c r="B46">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C46">
         <v>220</v>
       </c>
       <c r="D46">
-        <v>10570</v>
+        <v>10566</v>
       </c>
       <c r="E46">
-        <v>29463.183132321599</v>
+        <v>29467.5516822471</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1194,16 +1194,16 @@
         <v>42871</v>
       </c>
       <c r="B47">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="C47">
         <v>209</v>
       </c>
       <c r="D47">
-        <v>10577</v>
+        <v>10629</v>
       </c>
       <c r="E47">
-        <v>30231.0917713216</v>
+        <v>30109.978486913798</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1211,16 +1211,16 @@
         <v>42872</v>
       </c>
       <c r="B48">
-        <v>320</v>
+        <v>242</v>
       </c>
       <c r="C48">
         <v>210</v>
       </c>
       <c r="D48">
-        <v>10687</v>
+        <v>10661</v>
       </c>
       <c r="E48">
-        <v>30772.852470369198</v>
+        <v>30826.298140568499</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1228,16 +1228,16 @@
         <v>42873</v>
       </c>
       <c r="B49">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="C49">
         <v>204</v>
       </c>
       <c r="D49">
-        <v>10699</v>
+        <v>10729</v>
       </c>
       <c r="E49">
-        <v>31513.5346096549</v>
+        <v>31442.204538187601</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1245,16 +1245,16 @@
         <v>42874</v>
       </c>
       <c r="B50">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C50">
         <v>223</v>
       </c>
       <c r="D50">
-        <v>10692</v>
+        <v>10708</v>
       </c>
       <c r="E50">
-        <v>32359.996541525099</v>
+        <v>32320.380881880999</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1262,16 +1262,16 @@
         <v>42875</v>
       </c>
       <c r="B51">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="C51">
         <v>261</v>
       </c>
       <c r="D51">
-        <v>10647</v>
+        <v>10629</v>
       </c>
       <c r="E51">
-        <v>33434.194519395198</v>
+        <v>33471.581307678898</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1285,10 +1285,10 @@
         <v>242</v>
       </c>
       <c r="D52">
-        <v>10517</v>
+        <v>10499</v>
       </c>
       <c r="E52">
-        <v>34638.102698874703</v>
+        <v>34675.489487158498</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1302,10 +1302,10 @@
         <v>225</v>
       </c>
       <c r="D53">
-        <v>10404</v>
+        <v>10386</v>
       </c>
       <c r="E53">
-        <v>35741.190111046599</v>
+        <v>35778.576899330401</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1313,16 +1313,16 @@
         <v>42878</v>
       </c>
       <c r="B54">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="C54">
         <v>221</v>
       </c>
       <c r="D54">
-        <v>10399</v>
+        <v>10397</v>
       </c>
       <c r="E54">
-        <v>36594.680222383598</v>
+        <v>36597.229981877499</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1330,16 +1330,16 @@
         <v>42879</v>
       </c>
       <c r="B55">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="C55">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D55">
-        <v>10392</v>
+        <v>10435</v>
       </c>
       <c r="E55">
-        <v>37459.275319678803</v>
+        <v>37367.472275818902</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1347,16 +1347,16 @@
         <v>42880</v>
       </c>
       <c r="B56">
-        <v>320</v>
+        <v>242</v>
       </c>
       <c r="C56">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D56">
-        <v>10479</v>
+        <v>10447</v>
       </c>
       <c r="E56">
-        <v>38155.111284560597</v>
+        <v>38215.922786760697</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1364,16 +1364,16 @@
         <v>42881</v>
       </c>
       <c r="B57">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="C57">
         <v>249</v>
       </c>
       <c r="D57">
-        <v>10446</v>
+        <v>10450</v>
       </c>
       <c r="E57">
-        <v>39160.535343855801</v>
+        <v>39140.332522605102</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1381,16 +1381,16 @@
         <v>42882</v>
       </c>
       <c r="B58">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="C58">
         <v>268</v>
       </c>
       <c r="D58">
-        <v>10498</v>
+        <v>10444</v>
       </c>
       <c r="E58">
-        <v>40045.720024293099</v>
+        <v>40156.041729713201</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1404,10 +1404,10 @@
         <v>249</v>
       </c>
       <c r="D59">
-        <v>10361</v>
+        <v>10307</v>
       </c>
       <c r="E59">
-        <v>41292.851528747</v>
+        <v>41403.173234167101</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1415,16 +1415,16 @@
         <v>42884</v>
       </c>
       <c r="B60">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="C60">
         <v>223</v>
       </c>
       <c r="D60">
-        <v>10250</v>
+        <v>10256</v>
       </c>
       <c r="E60">
-        <v>42384.7595039304</v>
+        <v>42364.440838912997</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1432,16 +1432,16 @@
         <v>42885</v>
       </c>
       <c r="B61">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="C61">
         <v>225</v>
       </c>
       <c r="D61">
-        <v>10241</v>
+        <v>10263</v>
       </c>
       <c r="E61">
-        <v>43263.711784141196</v>
+        <v>43208.667362102402</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1449,16 +1449,16 @@
         <v>42886</v>
       </c>
       <c r="B62">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="C62">
         <v>226</v>
       </c>
       <c r="D62">
-        <v>10335</v>
+        <v>10299</v>
       </c>
       <c r="E62">
-        <v>43921.295529427</v>
+        <v>43992.429428555202</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1466,16 +1466,16 @@
         <v>42887</v>
       </c>
       <c r="B63">
-        <v>424</v>
+        <v>482</v>
       </c>
       <c r="C63">
         <v>228</v>
       </c>
       <c r="D63">
-        <v>10531</v>
+        <v>10553</v>
       </c>
       <c r="E63">
-        <v>44309.034948784203</v>
+        <v>44246.388485465897</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1483,16 +1483,16 @@
         <v>42888</v>
       </c>
       <c r="B64">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="C64">
         <v>246</v>
       </c>
       <c r="D64">
-        <v>10605</v>
+        <v>10569</v>
       </c>
       <c r="E64">
-        <v>45025.369010688897</v>
+        <v>45099.966123650403</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1500,16 +1500,16 @@
         <v>42889</v>
       </c>
       <c r="B65">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="C65">
         <v>263</v>
       </c>
       <c r="D65">
-        <v>10558</v>
+        <v>10568</v>
       </c>
       <c r="E65">
-        <v>46089.108393474598</v>
+        <v>46054.7471342516</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1523,10 +1523,10 @@
         <v>247</v>
       </c>
       <c r="D66">
-        <v>10423</v>
+        <v>10433</v>
       </c>
       <c r="E66">
-        <v>47308.757388808001</v>
+        <v>47274.3961295849</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1537,13 +1537,13 @@
         <v>112</v>
       </c>
       <c r="C67">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D67">
-        <v>10310</v>
+        <v>10322</v>
       </c>
       <c r="E67">
-        <v>48395.6575633635</v>
+        <v>48349.316304140499</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1551,16 +1551,16 @@
         <v>42892</v>
       </c>
       <c r="B68">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C68">
         <v>225</v>
       </c>
       <c r="D68">
-        <v>10301</v>
+        <v>10309</v>
       </c>
       <c r="E68">
-        <v>49239.024050863503</v>
+        <v>49202.0232270571</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1568,16 +1568,16 @@
         <v>42893</v>
       </c>
       <c r="B69">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="C69">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D69">
-        <v>10289</v>
+        <v>10324</v>
       </c>
       <c r="E69">
-        <v>50103.106849792101</v>
+        <v>49999.733770301202</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1585,16 +1585,16 @@
         <v>42894</v>
       </c>
       <c r="B70">
-        <v>320</v>
+        <v>252</v>
       </c>
       <c r="C70">
         <v>235</v>
       </c>
       <c r="D70">
-        <v>10374</v>
+        <v>10341</v>
       </c>
       <c r="E70">
-        <v>50774.7935936016</v>
+        <v>50827.812706051198</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1602,16 +1602,16 @@
         <v>42895</v>
       </c>
       <c r="B71">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="C71">
         <v>260</v>
       </c>
       <c r="D71">
-        <v>10330</v>
+        <v>10343</v>
       </c>
       <c r="E71">
-        <v>51825.087810601603</v>
+        <v>51770.1121729679</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1619,16 +1619,16 @@
         <v>42896</v>
       </c>
       <c r="B72">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="C72">
         <v>270</v>
       </c>
       <c r="D72">
-        <v>10380</v>
+        <v>10355</v>
       </c>
       <c r="E72">
-        <v>52693.116117268299</v>
+        <v>52727.116493217902</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1639,13 +1639,13 @@
         <v>112</v>
       </c>
       <c r="C73">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D73">
-        <v>10246</v>
+        <v>10220</v>
       </c>
       <c r="E73">
-        <v>53913.745913935003</v>
+        <v>53953.736289884502</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1656,13 +1656,13 @@
         <v>112</v>
       </c>
       <c r="C74">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D74">
-        <v>10134</v>
+        <v>10107</v>
       </c>
       <c r="E74">
-        <v>55003.475836046098</v>
+        <v>55049.456211995603</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1670,16 +1670,16 @@
         <v>42899</v>
       </c>
       <c r="B75">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="C75">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75">
-        <v>10130</v>
+        <v>10128</v>
       </c>
       <c r="E75">
-        <v>55835.4322708318</v>
+        <v>55828.9214768944</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1687,16 +1687,16 @@
         <v>42900</v>
       </c>
       <c r="B76">
+        <v>232</v>
+      </c>
+      <c r="C76">
         <v>216</v>
       </c>
-      <c r="C76">
-        <v>215</v>
-      </c>
       <c r="D76">
-        <v>10131</v>
+        <v>10144</v>
       </c>
       <c r="E76">
-        <v>56638.492275831799</v>
+        <v>56602.0611118944</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1704,16 +1704,16 @@
         <v>42901</v>
       </c>
       <c r="B77">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="C77">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D77">
-        <v>10126</v>
+        <v>10162</v>
       </c>
       <c r="E77">
-        <v>57478.069126831797</v>
+        <v>57401.3230468111</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1721,16 +1721,16 @@
         <v>42902</v>
       </c>
       <c r="B78">
-        <v>320</v>
+        <v>252</v>
       </c>
       <c r="C78">
         <v>237</v>
       </c>
       <c r="D78">
-        <v>10209</v>
+        <v>10177</v>
       </c>
       <c r="E78">
-        <v>58161.085193498497</v>
+        <v>58240.869574311102</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1738,16 +1738,16 @@
         <v>42903</v>
       </c>
       <c r="B79">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="C79">
         <v>263</v>
       </c>
       <c r="D79">
-        <v>10162</v>
+        <v>10166</v>
       </c>
       <c r="E79">
-        <v>59239.152074212798</v>
+        <v>59236.052601811098</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1761,10 +1761,10 @@
         <v>253</v>
       </c>
       <c r="D80">
-        <v>10021</v>
+        <v>10025</v>
       </c>
       <c r="E80">
-        <v>60506.258050879398</v>
+        <v>60503.1585784778</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -1778,10 +1778,10 @@
         <v>221</v>
       </c>
       <c r="D81">
-        <v>9912</v>
+        <v>9916</v>
       </c>
       <c r="E81">
-        <v>61583.668642026903</v>
+        <v>61580.569169625298</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -1789,16 +1789,16 @@
         <v>42906</v>
       </c>
       <c r="B82">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C82">
         <v>207</v>
       </c>
       <c r="D82">
-        <v>9921</v>
+        <v>9931</v>
       </c>
       <c r="E82">
-        <v>62349.233103668499</v>
+        <v>62332.956810756899</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -1806,16 +1806,16 @@
         <v>42907</v>
       </c>
       <c r="B83">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="C83">
         <v>209</v>
       </c>
       <c r="D83">
-        <v>9928</v>
+        <v>9954</v>
       </c>
       <c r="E83">
-        <v>63128.711810593297</v>
+        <v>63077.440607083598</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -1823,16 +1823,16 @@
         <v>42908</v>
       </c>
       <c r="B84">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C84">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D84">
-        <v>9922</v>
+        <v>9955</v>
       </c>
       <c r="E84">
-        <v>63987.847635996201</v>
+        <v>63917.5129831921</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -1840,16 +1840,16 @@
         <v>42909</v>
       </c>
       <c r="B85">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="C85">
         <v>250</v>
       </c>
       <c r="D85">
-        <v>9888</v>
+        <v>9937</v>
       </c>
       <c r="E85">
-        <v>65001.179696833198</v>
+        <v>64894.9807522392</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -1857,16 +1857,16 @@
         <v>42910</v>
       </c>
       <c r="B86">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="C86">
         <v>272</v>
       </c>
       <c r="D86">
-        <v>9936</v>
+        <v>9937</v>
       </c>
       <c r="E86">
-        <v>65914.640300889601</v>
+        <v>65915.814265687193</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -1880,10 +1880,10 @@
         <v>255</v>
       </c>
       <c r="D87">
-        <v>9793</v>
+        <v>9794</v>
       </c>
       <c r="E87">
-        <v>67199.190017876797</v>
+        <v>67200.363982674404</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -1897,10 +1897,10 @@
         <v>227</v>
       </c>
       <c r="D88">
-        <v>9678</v>
+        <v>9679</v>
       </c>
       <c r="E88">
-        <v>68316.513867052097</v>
+        <v>68317.687831849704</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -1908,16 +1908,16 @@
         <v>42913</v>
       </c>
       <c r="B89">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C89">
         <v>224</v>
       </c>
       <c r="D89">
-        <v>9670</v>
+        <v>9657</v>
       </c>
       <c r="E89">
-        <v>69191.720983947307</v>
+        <v>69223.134487464602</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -1925,16 +1925,16 @@
         <v>42914</v>
       </c>
       <c r="B90">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="C90">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D90">
-        <v>9664</v>
+        <v>9686</v>
       </c>
       <c r="E90">
-        <v>70054.358770042498</v>
+        <v>70013.905237909101</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -1942,16 +1942,16 @@
         <v>42915</v>
       </c>
       <c r="B91">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="C91">
         <v>231</v>
       </c>
       <c r="D91">
-        <v>9649</v>
+        <v>9687</v>
       </c>
       <c r="E91">
-        <v>70972.492401110503</v>
+        <v>70897.553212019106</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -1965,10 +1965,10 @@
         <v>249</v>
       </c>
       <c r="D92">
-        <v>9512</v>
+        <v>9550</v>
       </c>
       <c r="E92">
-        <v>72215.084835849397</v>
+        <v>72140.145646757999</v>
       </c>
     </row>
   </sheetData>

--- a/data-mining/delivery/operation-analysis.xlsx
+++ b/data-mining/delivery/operation-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my-git\data-mining\DataMining\delivery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{05590080-85AA-44BA-B0AD-C29CCC873C55}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7B096A89-9E58-4C49-B63C-B7C95BBD1351}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{F5544036-D815-40B6-8610-75117F1EAEA2}"/>
   </bookViews>
@@ -394,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8504E0-A1A2-46A6-BF94-40AB0B2CE54E}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,16 +1194,16 @@
         <v>42871</v>
       </c>
       <c r="B47">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C47">
         <v>209</v>
       </c>
       <c r="D47">
-        <v>10629</v>
+        <v>10619</v>
       </c>
       <c r="E47">
-        <v>30109.978486913798</v>
+        <v>30132.3859573304</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1211,7 +1211,7 @@
         <v>42872</v>
       </c>
       <c r="B48">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C48">
         <v>210</v>
@@ -1220,7 +1220,7 @@
         <v>10661</v>
       </c>
       <c r="E48">
-        <v>30826.298140568499</v>
+        <v>30826.326257830398</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>10729</v>
       </c>
       <c r="E49">
-        <v>31442.204538187601</v>
+        <v>31442.232655449501</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
         <v>10708</v>
       </c>
       <c r="E50">
-        <v>32320.380881880999</v>
+        <v>32320.408999142899</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
         <v>10629</v>
       </c>
       <c r="E51">
-        <v>33471.581307678898</v>
+        <v>33471.609424940798</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1288,7 +1288,7 @@
         <v>10499</v>
       </c>
       <c r="E52">
-        <v>34675.489487158498</v>
+        <v>34675.517604420398</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1305,7 +1305,7 @@
         <v>10386</v>
       </c>
       <c r="E53">
-        <v>35778.576899330401</v>
+        <v>35778.605016592301</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1313,16 +1313,16 @@
         <v>42878</v>
       </c>
       <c r="B54">
-        <v>232</v>
+        <v>322</v>
       </c>
       <c r="C54">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D54">
-        <v>10397</v>
+        <v>10483</v>
       </c>
       <c r="E54">
-        <v>36597.229981877499</v>
+        <v>36425.259812196498</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1330,16 +1330,16 @@
         <v>42879</v>
       </c>
       <c r="B55">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="C55">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D55">
-        <v>10435</v>
+        <v>10479</v>
       </c>
       <c r="E55">
-        <v>37367.472275818902</v>
+        <v>37294.736717749904</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1347,16 +1347,16 @@
         <v>42880</v>
       </c>
       <c r="B56">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C56">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D56">
-        <v>10447</v>
+        <v>10478</v>
       </c>
       <c r="E56">
-        <v>38215.922786760697</v>
+        <v>38183.027042289199</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1364,16 +1364,16 @@
         <v>42881</v>
       </c>
       <c r="B57">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C57">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D57">
-        <v>10450</v>
+        <v>10460</v>
       </c>
       <c r="E57">
-        <v>39140.332522605102</v>
+        <v>39158.434735606199</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
         <v>42882</v>
       </c>
       <c r="B58">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C58">
         <v>268</v>
@@ -1390,7 +1390,7 @@
         <v>10444</v>
       </c>
       <c r="E58">
-        <v>40156.041729713201</v>
+        <v>40196.648171450601</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
         <v>10307</v>
       </c>
       <c r="E59">
-        <v>41403.173234167101</v>
+        <v>41443.779675904603</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1424,7 +1424,7 @@
         <v>10256</v>
       </c>
       <c r="E60">
-        <v>42364.440838912997</v>
+        <v>42405.047280650499</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1432,16 +1432,16 @@
         <v>42885</v>
       </c>
       <c r="B61">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C61">
         <v>225</v>
       </c>
       <c r="D61">
-        <v>10263</v>
+        <v>10253</v>
       </c>
       <c r="E61">
-        <v>43208.667362102402</v>
+        <v>43270.977401978198</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1449,16 +1449,16 @@
         <v>42886</v>
       </c>
       <c r="B62">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="C62">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D62">
-        <v>10299</v>
+        <v>10268</v>
       </c>
       <c r="E62">
-        <v>43992.429428555202</v>
+        <v>44104.2392343506</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1466,16 +1466,16 @@
         <v>42887</v>
       </c>
       <c r="B63">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="C63">
         <v>228</v>
       </c>
       <c r="D63">
-        <v>10553</v>
+        <v>10552</v>
       </c>
       <c r="E63">
-        <v>44246.388485465897</v>
+        <v>44289.001552064903</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1489,10 +1489,10 @@
         <v>246</v>
       </c>
       <c r="D64">
-        <v>10569</v>
+        <v>10568</v>
       </c>
       <c r="E64">
-        <v>45099.966123650403</v>
+        <v>45142.579190249402</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1506,10 +1506,10 @@
         <v>263</v>
       </c>
       <c r="D65">
-        <v>10568</v>
+        <v>10567</v>
       </c>
       <c r="E65">
-        <v>46054.7471342516</v>
+        <v>46097.360200850599</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1523,10 +1523,10 @@
         <v>247</v>
       </c>
       <c r="D66">
-        <v>10433</v>
+        <v>10432</v>
       </c>
       <c r="E66">
-        <v>47274.3961295849</v>
+        <v>47317.009196184001</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1537,13 +1537,13 @@
         <v>112</v>
       </c>
       <c r="C67">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D67">
-        <v>10322</v>
+        <v>10319</v>
       </c>
       <c r="E67">
-        <v>48349.316304140499</v>
+        <v>48403.9093707395</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1551,16 +1551,16 @@
         <v>42892</v>
       </c>
       <c r="B68">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="C68">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D68">
-        <v>10309</v>
+        <v>10222</v>
       </c>
       <c r="E68">
-        <v>49202.0232270571</v>
+        <v>49467.385001989504</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1568,16 +1568,16 @@
         <v>42893</v>
       </c>
       <c r="B69">
-        <v>242</v>
+        <v>322</v>
       </c>
       <c r="C69">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D69">
-        <v>10324</v>
+        <v>10316</v>
       </c>
       <c r="E69">
-        <v>49999.733770301202</v>
+        <v>50085.293989281199</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1585,16 +1585,16 @@
         <v>42894</v>
       </c>
       <c r="B70">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="C70">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D70">
-        <v>10341</v>
+        <v>10302</v>
       </c>
       <c r="E70">
-        <v>50827.812706051198</v>
+        <v>50988.359480298997</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1602,16 +1602,16 @@
         <v>42895</v>
       </c>
       <c r="B71">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="C71">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D71">
-        <v>10343</v>
+        <v>10283</v>
       </c>
       <c r="E71">
-        <v>51770.1121729679</v>
+        <v>51983.603186382403</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1619,16 +1619,16 @@
         <v>42896</v>
       </c>
       <c r="B72">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="C72">
         <v>270</v>
       </c>
       <c r="D72">
-        <v>10355</v>
+        <v>10345</v>
       </c>
       <c r="E72">
-        <v>52727.116493217902</v>
+        <v>52823.533804548999</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1642,10 +1642,10 @@
         <v>247</v>
       </c>
       <c r="D73">
-        <v>10220</v>
+        <v>10210</v>
       </c>
       <c r="E73">
-        <v>53953.736289884502</v>
+        <v>54050.153601215701</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>42898</v>
       </c>
       <c r="B74">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C74">
         <v>225</v>
@@ -1662,7 +1662,7 @@
         <v>10107</v>
       </c>
       <c r="E74">
-        <v>55049.456211995603</v>
+        <v>55123.370837800998</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1670,16 +1670,16 @@
         <v>42899</v>
       </c>
       <c r="B75">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="C75">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75">
-        <v>10128</v>
+        <v>10157</v>
       </c>
       <c r="E75">
-        <v>55828.9214768944</v>
+        <v>55841.347829753402</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1687,16 +1687,16 @@
         <v>42900</v>
       </c>
       <c r="B76">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C76">
         <v>216</v>
       </c>
       <c r="D76">
-        <v>10144</v>
+        <v>10153</v>
       </c>
       <c r="E76">
-        <v>56602.0611118944</v>
+        <v>56659.375427253399</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1704,16 +1704,16 @@
         <v>42901</v>
       </c>
       <c r="B77">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77">
         <v>224</v>
       </c>
       <c r="D77">
-        <v>10162</v>
+        <v>10161</v>
       </c>
       <c r="E77">
-        <v>57401.3230468111</v>
+        <v>57481.054637586698</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1721,16 +1721,16 @@
         <v>42902</v>
       </c>
       <c r="B78">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="C78">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D78">
-        <v>10177</v>
+        <v>10233</v>
       </c>
       <c r="E78">
-        <v>58240.869574311102</v>
+        <v>58200.456052586698</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1738,16 +1738,16 @@
         <v>42903</v>
       </c>
       <c r="B79">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="C79">
         <v>263</v>
       </c>
       <c r="D79">
-        <v>10166</v>
+        <v>10182</v>
       </c>
       <c r="E79">
-        <v>59236.052601811098</v>
+        <v>59287.7322503248</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1761,10 +1761,10 @@
         <v>253</v>
       </c>
       <c r="D80">
-        <v>10025</v>
+        <v>10041</v>
       </c>
       <c r="E80">
-        <v>60503.1585784778</v>
+        <v>60554.838226991502</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -1778,10 +1778,10 @@
         <v>221</v>
       </c>
       <c r="D81">
-        <v>9916</v>
+        <v>9932</v>
       </c>
       <c r="E81">
-        <v>61580.569169625298</v>
+        <v>61632.248818139</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -1789,16 +1789,16 @@
         <v>42906</v>
       </c>
       <c r="B82">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C82">
         <v>207</v>
       </c>
       <c r="D82">
-        <v>9931</v>
+        <v>9937</v>
       </c>
       <c r="E82">
-        <v>62332.956810756899</v>
+        <v>62406.597826787198</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -1806,16 +1806,16 @@
         <v>42907</v>
       </c>
       <c r="B83">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C83">
         <v>209</v>
       </c>
       <c r="D83">
-        <v>9954</v>
+        <v>9950</v>
       </c>
       <c r="E83">
-        <v>63077.440607083598</v>
+        <v>63172.953442237696</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -1823,16 +1823,16 @@
         <v>42908</v>
       </c>
       <c r="B84">
+        <v>212</v>
+      </c>
+      <c r="C84">
         <v>222</v>
       </c>
-      <c r="C84">
-        <v>221</v>
-      </c>
       <c r="D84">
-        <v>9955</v>
+        <v>9940</v>
       </c>
       <c r="E84">
-        <v>63917.5129831921</v>
+        <v>64040.804900503499</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -1840,16 +1840,16 @@
         <v>42909</v>
       </c>
       <c r="B85">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="C85">
         <v>250</v>
       </c>
       <c r="D85">
-        <v>9937</v>
+        <v>9942</v>
       </c>
       <c r="E85">
-        <v>64894.9807522392</v>
+        <v>64973.442304813303</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -1857,16 +1857,16 @@
         <v>42910</v>
       </c>
       <c r="B86">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C86">
         <v>272</v>
       </c>
       <c r="D86">
-        <v>9937</v>
+        <v>9932</v>
       </c>
       <c r="E86">
-        <v>65915.814265687193</v>
+        <v>66016.645174384495</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -1880,10 +1880,10 @@
         <v>255</v>
       </c>
       <c r="D87">
-        <v>9794</v>
+        <v>9789</v>
       </c>
       <c r="E87">
-        <v>67200.363982674404</v>
+        <v>67301.194891371793</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -1891,16 +1891,16 @@
         <v>42912</v>
       </c>
       <c r="B88">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C88">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D88">
-        <v>9679</v>
+        <v>9693</v>
       </c>
       <c r="E88">
-        <v>68317.687831849704</v>
+        <v>68381.221927899795</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -1908,16 +1908,16 @@
         <v>42913</v>
       </c>
       <c r="B89">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C89">
         <v>224</v>
       </c>
       <c r="D89">
-        <v>9657</v>
+        <v>9661</v>
       </c>
       <c r="E89">
-        <v>69223.134487464602</v>
+        <v>69308.268254028793</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -1931,10 +1931,10 @@
         <v>223</v>
       </c>
       <c r="D90">
-        <v>9686</v>
+        <v>9690</v>
       </c>
       <c r="E90">
-        <v>70013.905237909101</v>
+        <v>70099.039004473205</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -1942,16 +1942,16 @@
         <v>42915</v>
       </c>
       <c r="B91">
+        <v>262</v>
+      </c>
+      <c r="C91">
         <v>232</v>
       </c>
-      <c r="C91">
-        <v>231</v>
-      </c>
       <c r="D91">
-        <v>9687</v>
+        <v>9720</v>
       </c>
       <c r="E91">
-        <v>70897.553212019106</v>
+        <v>70924.016371787104</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -1962,13 +1962,13 @@
         <v>112</v>
       </c>
       <c r="C92">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D92">
-        <v>9550</v>
+        <v>9584</v>
       </c>
       <c r="E92">
-        <v>72140.145646757999</v>
+        <v>72160.618806526094</v>
       </c>
     </row>
   </sheetData>
